--- a/QRPH/CCG/StructureDefinition-ccg-card-folder.xlsx
+++ b/QRPH/CCG/StructureDefinition-ccg-card-folder.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T16:28:52-05:00</t>
+    <t>2025-10-02T10:26:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3276,7 +3276,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>147</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>196</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>220</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>331</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>402</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>409</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>414</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>419</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>424</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>430</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>433</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>436</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>447</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>450</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>454</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>465</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>469</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>513</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>517</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
         <v>528</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>533</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>570</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
         <v>578</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>585</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
         <v>589</v>
       </c>
@@ -15188,7 +15188,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>592</v>
       </c>
@@ -15302,12 +15302,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN115">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
